--- a/03_Output/Compare.xlsx
+++ b/03_Output/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99294151c07b659b/Desktop/Ders/03_Data/DataScience_Project/BSE_DataProject/03_Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048A4A95C668C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434599C1-A1CC-4C96-8C5E-D350283FC557}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC1048A4A95C668C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20976A8-495B-4166-B97E-D540F8AAC19D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="RMSE_Comp" sheetId="1" r:id="rId1"/>
     <sheet name="RMSE_Comp_Formatted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>RF</t>
   </si>
@@ -93,6 +93,33 @@
       </rPr>
       <t>(S1:2001-15, S2:2015-25)</t>
     </r>
+  </si>
+  <si>
+    <t>2001-15</t>
+  </si>
+  <si>
+    <t>Current Results</t>
+  </si>
+  <si>
+    <t>Medeiros Paper</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>Medeiros (2021)</t>
+  </si>
+  <si>
+    <t>1 Step</t>
+  </si>
+  <si>
+    <t>3 Step</t>
+  </si>
+  <si>
+    <t>Medeiros Paper vs Medeiros Code</t>
+  </si>
+  <si>
+    <t>Table: RMSE Comparison Between Author's Calculations and Medeiros (2021)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -203,6 +230,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -216,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,19 +261,15 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -246,13 +278,49 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="A1:G11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,11 +686,11 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
+      <c r="B5" s="3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.47299999999999998</v>
       </c>
       <c r="D5" s="3">
         <v>0.33500000000000002</v>
@@ -684,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>0.36969000000000002</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="C8" s="3">
-        <v>0.36965999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D8" s="3">
         <v>0.29909000000000002</v>
@@ -707,10 +775,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3">
-        <v>0.31072</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="C9" s="3">
-        <v>0.33471000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D9" s="3">
         <v>0.27889000000000003</v>
@@ -730,10 +798,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>0.31852999999999998</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="C10" s="3">
-        <v>0.33424999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D10" s="3">
         <v>0.27834999999999999</v>
@@ -755,8 +823,8 @@
       <c r="B11" s="3">
         <v>0.29311999999999999</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
+      <c r="C11" s="3">
+        <v>0.33437</v>
       </c>
       <c r="D11" s="3">
         <v>0.29770999999999997</v>
@@ -769,6 +837,69 @@
       </c>
       <c r="G11" s="3">
         <v>0.25924999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <f>B5/B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C5/C$5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <f>B7/B$5</f>
+        <v>0.91872023809523806</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C7/C$5</f>
+        <v>0.77627906976744188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <f>B8/B$5</f>
+        <v>0.85416666666666652</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C8/C$5</f>
+        <v>0.71035940803382669</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <f>B9/B$5</f>
+        <v>0.83630952380952384</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C9/C$5</f>
+        <v>0.74207188160676529</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <f>B10/B$5</f>
+        <v>0.83928571428571419</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C10/C$5</f>
+        <v>0.7167019027484145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <f>B11/B$5</f>
+        <v>0.87238095238095226</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -923,550 +1054,1413 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E3DD-54AB-41D3-9611-FD5FA2E7BF1A}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>0.33500000000000002</v>
       </c>
       <c r="D5" s="6">
         <v>0.47099999999999997</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>0.25</v>
       </c>
       <c r="F5" s="6">
         <v>0.32800000000000001</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.37</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.35885400931297956</v>
       </c>
       <c r="D6" s="6">
-        <v>0.371</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.28299999999999997</v>
+        <v>0.35885400931297956</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.28264341492417616</v>
       </c>
       <c r="F6" s="6">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+        <v>0.28264341492417616</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="C7" s="9">
+        <v>0.36946028203313008</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.35551427538145358</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.27939004993020061</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.25709220135974564</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>0.29909000000000002</v>
       </c>
       <c r="D8" s="6">
         <v>0.37525999999999998</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>0.22578999999999999</v>
       </c>
       <c r="F8" s="6">
         <v>0.28236</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>0.27889000000000003</v>
       </c>
       <c r="D9" s="6">
         <v>0.34126000000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>0.2263</v>
       </c>
       <c r="F9" s="6">
         <v>0.26275999999999999</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>0.27834999999999999</v>
       </c>
       <c r="D10" s="6">
         <v>0.34827000000000002</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>0.22420000000000001</v>
       </c>
       <c r="F10" s="6">
         <v>0.26036999999999999</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>0.29770999999999997</v>
       </c>
       <c r="D11" s="8">
         <v>0.32678000000000001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.22384000000000001</v>
       </c>
       <c r="F11" s="8">
-        <v>0.25924999999999998</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+        <v>0.25824999999999998</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13">
+        <f>C5/C$5</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
+        <f>D5/D$5</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <f>E5/E$5</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <f>F5/F$5</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13">
+        <f>C6/C$5</f>
+        <v>1.0712059979491926</v>
+      </c>
+      <c r="D17" s="14">
+        <f>D6/D$5</f>
+        <v>0.76189810894475496</v>
+      </c>
+      <c r="E17" s="13">
+        <f>E6/E$5</f>
+        <v>1.1305736596967046</v>
+      </c>
+      <c r="F17" s="14">
+        <f>F6/F$5</f>
+        <v>0.86171772842736627</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <f>C7/C$5</f>
+        <v>1.1028665135317315</v>
+      </c>
+      <c r="D18" s="14">
+        <f>D7/D$5</f>
+        <v>0.7548073787292009</v>
+      </c>
+      <c r="E18" s="13">
+        <f>E7/E$5</f>
+        <v>1.1175601997208024</v>
+      </c>
+      <c r="F18" s="14">
+        <f>F7/F$5</f>
+        <v>0.78381768707239519</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13">
+        <f>C8/C$5</f>
+        <v>0.89280597014925378</v>
+      </c>
+      <c r="D19" s="14">
+        <f>D8/D$5</f>
+        <v>0.79673036093418259</v>
+      </c>
+      <c r="E19" s="13">
+        <f>E8/E$5</f>
+        <v>0.90315999999999996</v>
+      </c>
+      <c r="F19" s="14">
+        <f>F8/F$5</f>
+        <v>0.86085365853658535</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13">
+        <f>C9/C$5</f>
+        <v>0.83250746268656717</v>
+      </c>
+      <c r="D20" s="14">
+        <f>D9/D$5</f>
+        <v>0.7245435244161359</v>
+      </c>
+      <c r="E20" s="13">
+        <f>E9/E$5</f>
+        <v>0.9052</v>
+      </c>
+      <c r="F20" s="14">
+        <f>F9/F$5</f>
+        <v>0.80109756097560969</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" ref="C21:F21" si="0">C10/C$5</f>
+        <v>0.83089552238805964</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.73942675159235682</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.793810975609756</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" ref="C22:F22" si="1">C11/C$5</f>
+        <v>0.88868656716417893</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="1"/>
+        <v>0.69380042462845015</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.89536000000000004</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="1"/>
+        <v>0.78734756097560965</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" ref="C30:D30" si="2">C5</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D30" s="14">
+        <f>RMSE_Comp!B5</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E30" s="13">
+        <f>D5</f>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F30" s="14">
+        <f>RMSE_Comp!C5</f>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1</v>
+      </c>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <f>C7</f>
+        <v>0.36946028203313008</v>
+      </c>
+      <c r="D31" s="14">
+        <f>RMSE_Comp!B7</f>
+        <v>0.30869000000000002</v>
+      </c>
+      <c r="E31" s="13">
+        <f>D7</f>
+        <v>0.35551427538145358</v>
+      </c>
+      <c r="F31" s="14">
+        <f>RMSE_Comp!C7</f>
+        <v>0.36718000000000001</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="L31" s="13">
+        <f>D31/D$30</f>
+        <v>0.91872023809523806</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" ref="M31:M35" si="3">F31/F$30</f>
+        <v>0.77627906976744188</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" ref="C32:D32" si="4">C8</f>
+        <v>0.29909000000000002</v>
+      </c>
+      <c r="D32" s="14">
+        <f>RMSE_Comp!B8</f>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F32" s="14">
+        <f>RMSE_Comp!C8</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="L32" s="13">
+        <f>D32/D$30</f>
+        <v>0.85416666666666652</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" si="3"/>
+        <v>0.71035940803382669</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" ref="C33:D33" si="5">C9</f>
+        <v>0.27889000000000003</v>
+      </c>
+      <c r="D33" s="14">
+        <f>RMSE_Comp!B9</f>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E33" s="13">
+        <f>D9</f>
+        <v>0.34126000000000001</v>
+      </c>
+      <c r="F33" s="14">
+        <f>RMSE_Comp!C9</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="L33" s="13">
+        <f>D33/D$30</f>
+        <v>0.83630952380952384</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="3"/>
+        <v>0.74207188160676529</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" ref="C34:D34" si="6">C10</f>
+        <v>0.27834999999999999</v>
+      </c>
+      <c r="D34" s="14">
+        <f>RMSE_Comp!B10</f>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E34" s="13">
+        <f>D10</f>
+        <v>0.34827000000000002</v>
+      </c>
+      <c r="F34" s="14">
+        <f>RMSE_Comp!C10</f>
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="L34" s="13">
+        <f>D34/D$30</f>
+        <v>0.83928571428571419</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="3"/>
+        <v>0.7167019027484145</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" ref="C35:D35" si="7">C11</f>
+        <v>0.29770999999999997</v>
+      </c>
+      <c r="D35" s="16">
+        <f>RMSE_Comp!B11</f>
+        <v>0.29311999999999999</v>
+      </c>
+      <c r="E35" s="15">
+        <f>D11</f>
+        <v>0.32678000000000001</v>
+      </c>
+      <c r="F35" s="16">
+        <f>RMSE_Comp!C11</f>
+        <v>0.33437</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="L35" s="15">
+        <f>D35/D$30</f>
+        <v>0.87238095238095226</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="15">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C11">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D11">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E11">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F11">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C22">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C22">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D22">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E22">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E22">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F22">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F22">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J35">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:K35">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K35">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:L35">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31:M35">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L35">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1478,7 +2472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C11">
+  <conditionalFormatting sqref="D31:D35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1490,7 +2484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D11">
+  <conditionalFormatting sqref="C30:C35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1502,7 +2496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D11">
+  <conditionalFormatting sqref="D30:D35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1514,7 +2508,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E11">
+  <conditionalFormatting sqref="E31:E35">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E35">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1526,7 +2544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E11">
+  <conditionalFormatting sqref="F30:F35">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1538,20 +2556,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F11">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F11">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="C30:D35">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F35">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1563,5 +2581,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>